--- a/data/topics-activities/twcs-SpotifyCares-inbound-topics.xlsx
+++ b/data/topics-activities/twcs-SpotifyCares-inbound-topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/electric/data/topics-activities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/ericsson/data/topics-activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3242D4D-B390-3349-867A-ECB14D721488}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81F225-ED93-4245-BDD6-F7E4E70516E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29320" yWindow="1520" windowWidth="26040" windowHeight="14940" xr2:uid="{2CBF1F18-8D81-E14E-903B-3309F03B2598}"/>
+    <workbookView xWindow="-28980" yWindow="1740" windowWidth="26040" windowHeight="14940" xr2:uid="{2CBF1F18-8D81-E14E-903B-3309F03B2598}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,8 +534,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -581,16 +585,16 @@
         <v>0.97</v>
       </c>
       <c r="E2">
-        <v>0.78400298013261049</v>
+        <v>0.78225367446924332</v>
       </c>
       <c r="F2">
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="G2">
-        <v>0.88666921313980152</v>
+        <v>0.89112683723462172</v>
       </c>
       <c r="H2">
-        <v>0.80642857142857127</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="I2">
         <v>33</v>
@@ -610,19 +614,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>0.91999999999999993</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="E3">
-        <v>0.85772671646116994</v>
+        <v>0.85689896326131898</v>
       </c>
       <c r="F3">
         <v>0.97</v>
       </c>
       <c r="G3">
-        <v>0.89714285714285713</v>
+        <v>0.89714285714285724</v>
       </c>
       <c r="H3">
-        <v>0.86555555555555552</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -645,16 +649,16 @@
         <v>0.93999999999999984</v>
       </c>
       <c r="E4">
-        <v>0.82793791705198938</v>
+        <v>0.80995040343199776</v>
       </c>
       <c r="F4">
-        <v>0.96500000000000008</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="G4">
         <v>0.98108108108108105</v>
       </c>
       <c r="H4">
-        <v>0.82619047619047614</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="I4">
         <v>15</v>
@@ -674,19 +678,19 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0.90999999999999992</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="E5">
-        <v>0.98242069763151818</v>
+        <v>0.97974678822934125</v>
       </c>
       <c r="F5">
-        <v>0.99499999999999988</v>
+        <v>0.995</v>
       </c>
       <c r="G5">
-        <v>0.99705882352941178</v>
+        <v>0.99709302325581395</v>
       </c>
       <c r="H5">
-        <v>0.98461538461538467</v>
+        <v>0.98245614035087714</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -706,19 +710,19 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E6">
-        <v>0.9763834207376394</v>
+        <v>0.9691664180319719</v>
       </c>
       <c r="F6">
-        <v>0.99499999999999988</v>
+        <v>0.995</v>
       </c>
       <c r="G6">
-        <v>0.99722222222222212</v>
+        <v>0.99726775956284153</v>
       </c>
       <c r="H6">
-        <v>0.97777777777777786</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="I6">
         <v>17</v>
@@ -738,19 +742,19 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>0.91999999999999993</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="E7">
-        <v>0.97084843923544994</v>
+        <v>0.96349126212248548</v>
       </c>
       <c r="F7">
-        <v>0.99499999999999988</v>
+        <v>0.995</v>
       </c>
       <c r="G7">
-        <v>0.99729729729729721</v>
+        <v>0.99731182795698925</v>
       </c>
       <c r="H7">
-        <v>0.97142857142857153</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="I7">
         <v>14</v>
@@ -773,16 +777,16 @@
         <v>0.97</v>
       </c>
       <c r="E8">
-        <v>0.49708509998549</v>
+        <v>0.50009913796902061</v>
       </c>
       <c r="F8">
-        <v>0.85499999999999987</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="G8">
-        <v>0.77745098039215688</v>
+        <v>0.77745098039215677</v>
       </c>
       <c r="H8">
-        <v>0.57062104562104565</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="I8">
         <v>30</v>
@@ -802,19 +806,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.92999999999999994</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E9">
-        <v>0.81696667627789343</v>
+        <v>0.79633669583420641</v>
       </c>
       <c r="F9">
-        <v>0.93499999999999994</v>
+        <v>0.94</v>
       </c>
       <c r="G9">
-        <v>0.94862745098039214</v>
+        <v>0.95016611295681064</v>
       </c>
       <c r="H9">
-        <v>0.83149321266968335</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="I9">
         <v>28</v>
@@ -869,16 +873,16 @@
         <v>0.97</v>
       </c>
       <c r="E11">
-        <v>0.96113631583445669</v>
+        <v>0.93298784624641462</v>
       </c>
       <c r="F11">
-        <v>0.99499999999999988</v>
+        <v>0.995</v>
       </c>
       <c r="G11">
-        <v>0.99736842105263146</v>
+        <v>0.99740932642487046</v>
       </c>
       <c r="H11">
-        <v>0.96</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I11">
         <v>7</v>
